--- a/Data/Test Data.xlsx
+++ b/Data/Test Data.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Đăng nhập" sheetId="1" r:id="rId1"/>
     <sheet name="Tìm kiếm " sheetId="3" r:id="rId2"/>
     <sheet name="Thông tin cá nhân" sheetId="4" r:id="rId3"/>
     <sheet name="Tạo tài khoản" sheetId="2" r:id="rId4"/>
-    <sheet name="Giỏ hàng" sheetId="5" r:id="rId5"/>
-    <sheet name="Giỏ hàng 1" sheetId="6" r:id="rId6"/>
+    <sheet name="Giỏ hàng 1" sheetId="5" r:id="rId5"/>
+    <sheet name="Giỏ hàng 2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -3091,8 +3091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3311,7 +3311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
